--- a/Dokumentation/tables/BAT_Berechnung_Speicherbedarf_Logging.xlsx
+++ b/Dokumentation/tables/BAT_Berechnung_Speicherbedarf_Logging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Vorarbeiten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Dokumentation\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA3556-5A22-4B6A-BD87-D157FABB2C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17987F12-28AE-4085-9056-DC242BD16365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -413,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -459,7 +459,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A1+A2+A3</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -474,7 +474,7 @@
       </c>
       <c r="B8">
         <f>A5/E1*E2/1000</f>
-        <v>6.48</v>
+        <v>561.6</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
